--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="内部Flash Layout" sheetId="1" r:id="rId1"/>
     <sheet name="外部SPI Flash Layout" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1-Wire EEPROM Layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,38 @@
   </si>
   <si>
     <t>Config Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detach CMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +193,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,17 +280,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,23 +331,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -593,7 +674,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -604,29 +685,29 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -754,7 +835,7 @@
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -794,11 +875,11 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="9"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="14"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -834,13 +915,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -322,6 +322,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,9 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,7 +674,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -685,29 +685,29 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -715,127 +715,127 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="11"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="11"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="11"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="11"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="11"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="11"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="11"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="11"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -846,25 +846,25 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -875,11 +875,11 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="14"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -918,7 +918,7 @@
   <dimension ref="C1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="6" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>Detach CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C12"/>
+  <dimension ref="C1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,58 +933,63 @@
     <row r="1" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+    <row r="7" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="17" t="s">
+    <row r="8" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
-    </row>
     <row r="9" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
-    </row>
     <row r="11" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
+    <row r="13" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -922,7 +922,7 @@
   <dimension ref="C1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sensorType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,7 +102,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRC16</t>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detach CMD Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capture CMD Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach CMD Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -312,23 +380,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,6 +474,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,6 +497,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右大括号 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="3743325"/>
+          <a:ext cx="152400" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="4133850"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>可变长度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,7 +913,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -689,29 +924,29 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -719,127 +954,127 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="12"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="12"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="12"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="12"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="12"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="12"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="12"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="12"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="12"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="12"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="12"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="12"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="12"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="12"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C31" s="12"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="12"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C33" s="12"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="12"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="12"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="12"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="12"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="12"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -850,25 +1085,25 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="12"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="12"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="12"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="12"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -879,11 +1114,11 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="15"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="16"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -919,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C13"/>
+  <dimension ref="C1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,69 +1165,198 @@
     <col min="3" max="3" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="17"/>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="17"/>
+      <c r="D9" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="17"/>
+      <c r="D11" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="17"/>
+      <c r="D13" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="17"/>
+      <c r="D15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="17"/>
+      <c r="D17" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="17"/>
+      <c r="D19" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="17"/>
+      <c r="D21" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="17" t="s">
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="17" t="s">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/design/memory_layout.xlsx
+++ b/Doc/design/memory_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="内部Flash Layout" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>0xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0003AFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156KB系统固件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +452,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,11 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,7 +921,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -924,29 +932,29 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C4" s="7"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -954,127 +962,132 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="10"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="10"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="10"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="10"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="10"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C16" s="10"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="10"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="10"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="10"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="10"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="10"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C22" s="10"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="10"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="10"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="10"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="10"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="10"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="10"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="10"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="10"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C31" s="10"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="10"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C33" s="10"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="10"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C35" s="10"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="10"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="10"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="10"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="10"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1085,25 +1098,25 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="10"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="10"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="10"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="10"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1114,11 +1127,11 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="13"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="14"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1146,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1156,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1167,176 +1180,176 @@
   <sheetData>
     <row r="1" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="17"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="15"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="15"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="15"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D28" s="20"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
